--- a/Texts/MonItems.xlsx
+++ b/Texts/MonItems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="613">
   <si>
     <t>monPackage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1958,19 +1958,11 @@
     <t>火龙神</t>
   </si>
   <si>
-    <t>未知暗殿Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷炎Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐月火龙Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>狐月火龙特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级地图boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2327,7 +2319,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2337,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="H217" sqref="H217"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="J229" sqref="J229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2406,7 +2398,7 @@
         <v>74</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2446,7 +2438,7 @@
         <v>91</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2486,7 +2478,7 @@
         <v>90</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2540,7 +2532,7 @@
         <v>254</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2560,7 +2552,7 @@
         <v>246</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2594,7 +2586,7 @@
         <v>74</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2611,7 +2603,7 @@
         <v>81</v>
       </c>
       <c r="J14">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2631,7 +2623,7 @@
         <v>91</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2651,7 +2643,7 @@
         <v>98</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2671,7 +2663,7 @@
         <v>90</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2688,7 +2680,7 @@
         <v>124</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2728,7 +2720,7 @@
         <v>254</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2748,7 +2740,7 @@
         <v>246</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2782,7 +2774,7 @@
         <v>74</v>
       </c>
       <c r="J23">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2802,7 +2794,7 @@
         <v>81</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2822,7 +2814,7 @@
         <v>91</v>
       </c>
       <c r="J25">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2845,7 +2837,7 @@
         <v>98</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2862,7 +2854,7 @@
         <v>90</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2879,7 +2871,7 @@
         <v>124</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2896,7 +2888,7 @@
         <v>82</v>
       </c>
       <c r="J29">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2913,7 +2905,7 @@
         <v>105</v>
       </c>
       <c r="J30">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2930,7 +2922,7 @@
         <v>145</v>
       </c>
       <c r="J31">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2964,7 +2956,7 @@
         <v>254</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2981,7 +2973,7 @@
         <v>246</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3066,7 +3058,7 @@
         <v>82</v>
       </c>
       <c r="J39">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3083,7 +3075,7 @@
         <v>105</v>
       </c>
       <c r="J40">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3100,7 +3092,7 @@
         <v>145</v>
       </c>
       <c r="J41">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3123,7 +3115,7 @@
         <v>162</v>
       </c>
       <c r="J42">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3140,7 +3132,7 @@
         <v>163</v>
       </c>
       <c r="J43">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3157,7 +3149,7 @@
         <v>189</v>
       </c>
       <c r="J44">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3174,7 +3166,7 @@
         <v>191</v>
       </c>
       <c r="J45">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3191,7 +3183,7 @@
         <v>195</v>
       </c>
       <c r="J46">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3208,7 +3200,7 @@
         <v>198</v>
       </c>
       <c r="J47">
-        <v>240</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3245,7 +3237,7 @@
         <v>254</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3262,7 +3254,7 @@
         <v>246</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3395,7 +3387,7 @@
         <v>162</v>
       </c>
       <c r="J58">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3409,7 +3401,7 @@
         <v>163</v>
       </c>
       <c r="J59">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3426,7 +3418,7 @@
         <v>189</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3443,7 +3435,7 @@
         <v>191</v>
       </c>
       <c r="J61">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3466,7 +3458,7 @@
         <v>195</v>
       </c>
       <c r="J62">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3483,7 +3475,7 @@
         <v>198</v>
       </c>
       <c r="J63">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3500,7 +3492,7 @@
         <v>220</v>
       </c>
       <c r="J64">
-        <v>9999</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3517,7 +3509,7 @@
         <v>224</v>
       </c>
       <c r="J65">
-        <v>9999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3568,7 +3560,7 @@
         <v>246</v>
       </c>
       <c r="J68">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3722,7 +3714,7 @@
         <v>82</v>
       </c>
       <c r="J76">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3742,7 +3734,7 @@
         <v>105</v>
       </c>
       <c r="J77">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3759,7 +3751,7 @@
         <v>145</v>
       </c>
       <c r="J78">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3779,7 +3771,7 @@
         <v>81</v>
       </c>
       <c r="J79">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3796,7 +3788,7 @@
         <v>98</v>
       </c>
       <c r="J80">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3813,7 +3805,7 @@
         <v>124</v>
       </c>
       <c r="J81">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3957,7 +3949,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>611</v>
+        <v>542</v>
       </c>
       <c r="D90" t="s">
         <v>555</v>
@@ -3974,7 +3966,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="B91" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3991,10 +3983,10 @@
     </row>
     <row r="92" spans="1:10">
       <c r="B92" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>134</v>
@@ -4007,8 +3999,11 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>542</v>
+      <c r="B93" t="s">
+        <v>580</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>135</v>
@@ -4022,7 +4017,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="B94" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4039,10 +4034,10 @@
     </row>
     <row r="95" spans="1:10">
       <c r="B95" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E95" t="s">
         <v>137</v>
@@ -4056,7 +4051,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="B96" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4068,15 +4063,15 @@
         <v>82</v>
       </c>
       <c r="J96">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="B97" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E97" t="s">
         <v>139</v>
@@ -4085,15 +4080,15 @@
         <v>105</v>
       </c>
       <c r="J97">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="B98" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C98">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>140</v>
@@ -4102,12 +4097,12 @@
         <v>145</v>
       </c>
       <c r="J98">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="B99" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4119,15 +4114,15 @@
         <v>82</v>
       </c>
       <c r="J99">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="B100" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C100">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>142</v>
@@ -4136,12 +4131,12 @@
         <v>105</v>
       </c>
       <c r="J100">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="B101" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4153,12 +4148,12 @@
         <v>145</v>
       </c>
       <c r="J101">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="B102" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4170,12 +4165,12 @@
         <v>162</v>
       </c>
       <c r="J102">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="B103" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4193,12 +4188,12 @@
         <v>163</v>
       </c>
       <c r="J103">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="B104" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4210,15 +4205,12 @@
         <v>189</v>
       </c>
       <c r="J104">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="B105" t="s">
-        <v>589</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
+      <c r="A105" t="s">
+        <v>543</v>
       </c>
       <c r="E105" t="s">
         <v>147</v>
@@ -4227,12 +4219,12 @@
         <v>191</v>
       </c>
       <c r="J105">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="B106" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4244,12 +4236,12 @@
         <v>195</v>
       </c>
       <c r="J106">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="B107" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4261,12 +4253,15 @@
         <v>198</v>
       </c>
       <c r="J107">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" t="s">
-        <v>612</v>
+      <c r="B108" t="s">
+        <v>599</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>150</v>
@@ -4275,15 +4270,15 @@
         <v>220</v>
       </c>
       <c r="J108">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="B109" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E109" t="s">
         <v>151</v>
@@ -4292,12 +4287,12 @@
         <v>224</v>
       </c>
       <c r="J109">
-        <v>250</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="B110" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C110">
         <v>0.8</v>
@@ -4313,8 +4308,11 @@
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" t="s">
-        <v>543</v>
+      <c r="B111" t="s">
+        <v>602</v>
+      </c>
+      <c r="C111">
+        <v>0.8</v>
       </c>
       <c r="E111" t="s">
         <v>153</v>
@@ -4328,10 +4326,10 @@
     </row>
     <row r="112" spans="1:10">
       <c r="B112" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E112" t="s">
         <v>154</v>
@@ -4345,10 +4343,10 @@
     </row>
     <row r="113" spans="1:10">
       <c r="B113" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E113" t="s">
         <v>155</v>
@@ -4362,7 +4360,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="B114" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4378,11 +4376,8 @@
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="B115" t="s">
-        <v>600</v>
-      </c>
-      <c r="C115">
-        <v>0.8</v>
+      <c r="A115" t="s">
+        <v>611</v>
       </c>
       <c r="E115" t="s">
         <v>157</v>
@@ -4396,10 +4391,10 @@
     </row>
     <row r="116" spans="1:10">
       <c r="B116" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C116">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
         <v>158</v>
@@ -4413,10 +4408,10 @@
     </row>
     <row r="117" spans="1:10">
       <c r="B117" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C117">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
         <v>159</v>
@@ -4427,10 +4422,10 @@
     </row>
     <row r="118" spans="1:10">
       <c r="B118" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C118">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
         <v>160</v>
@@ -4444,7 +4439,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="B119" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C119">
         <v>0.8</v>
@@ -4460,11 +4455,8 @@
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="B120" t="s">
-        <v>608</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
+      <c r="A120" t="s">
+        <v>612</v>
       </c>
       <c r="D120" t="s">
         <v>162</v>
@@ -4483,8 +4475,11 @@
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" t="s">
-        <v>614</v>
+      <c r="B121" t="s">
+        <v>590</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>85</v>
@@ -4498,10 +4493,10 @@
     </row>
     <row r="122" spans="1:10">
       <c r="B122" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E122" t="s">
         <v>86</v>
@@ -4515,10 +4510,10 @@
     </row>
     <row r="123" spans="1:10">
       <c r="B123" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>87</v>
@@ -4532,10 +4527,10 @@
     </row>
     <row r="124" spans="1:10">
       <c r="B124" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D124" t="s">
         <v>163</v>
@@ -4555,10 +4550,10 @@
     </row>
     <row r="125" spans="1:10">
       <c r="B125" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C125">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E125" t="s">
         <v>217</v>
@@ -4571,8 +4566,11 @@
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" t="s">
-        <v>613</v>
+      <c r="B126" t="s">
+        <v>604</v>
+      </c>
+      <c r="C126">
+        <v>0.7</v>
       </c>
       <c r="E126" t="s">
         <v>218</v>
@@ -4586,10 +4584,10 @@
     </row>
     <row r="127" spans="1:10">
       <c r="B127" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E127" t="s">
         <v>219</v>
@@ -4598,15 +4596,15 @@
         <v>162</v>
       </c>
       <c r="J127">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="B128" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C128">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E128" t="s">
         <v>164</v>
@@ -4615,16 +4613,10 @@
         <v>163</v>
       </c>
       <c r="J128">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" t="s">
-        <v>605</v>
-      </c>
-      <c r="C129">
-        <v>0.8</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="5:10">
       <c r="E129" t="s">
         <v>165</v>
       </c>
@@ -4632,16 +4624,10 @@
         <v>189</v>
       </c>
       <c r="J129">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" t="s">
-        <v>610</v>
-      </c>
-      <c r="C130">
-        <v>0.8</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="5:10">
       <c r="E130" t="s">
         <v>166</v>
       </c>
@@ -4649,10 +4635,10 @@
         <v>191</v>
       </c>
       <c r="J130">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="5:10">
       <c r="E131" t="s">
         <v>167</v>
       </c>
@@ -4660,10 +4646,10 @@
         <v>195</v>
       </c>
       <c r="J131">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="5:10">
       <c r="E132" t="s">
         <v>170</v>
       </c>
@@ -4671,10 +4657,10 @@
         <v>198</v>
       </c>
       <c r="J132">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="5:10">
       <c r="E133" t="s">
         <v>171</v>
       </c>
@@ -4682,10 +4668,10 @@
         <v>220</v>
       </c>
       <c r="J133">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="5:10">
       <c r="E134" t="s">
         <v>172</v>
       </c>
@@ -4693,10 +4679,10 @@
         <v>224</v>
       </c>
       <c r="J134">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="5:10">
       <c r="E135" t="s">
         <v>173</v>
       </c>
@@ -4707,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="5:10">
       <c r="E136" t="s">
         <v>174</v>
       </c>
@@ -4718,7 +4704,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="5:10">
       <c r="E137" t="s">
         <v>177</v>
       </c>
@@ -4729,7 +4715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="5:10">
       <c r="E138" t="s">
         <v>178</v>
       </c>
@@ -4740,7 +4726,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="5:10">
       <c r="E139" t="s">
         <v>179</v>
       </c>
@@ -4751,7 +4737,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="5:10">
       <c r="E140" t="s">
         <v>180</v>
       </c>
@@ -4762,7 +4748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="5:10">
       <c r="E141" t="s">
         <v>181</v>
       </c>
@@ -4773,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="5:10">
       <c r="E142" t="s">
         <v>184</v>
       </c>
@@ -4784,7 +4770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="5:10">
       <c r="E143" t="s">
         <v>185</v>
       </c>
@@ -4792,7 +4778,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="5:10">
       <c r="E144" t="s">
         <v>186</v>
       </c>
@@ -4800,7 +4786,7 @@
         <v>82</v>
       </c>
       <c r="J144">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="4:10">
@@ -4811,7 +4797,7 @@
         <v>105</v>
       </c>
       <c r="J145">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="4:10">
@@ -4839,7 +4825,7 @@
         <v>162</v>
       </c>
       <c r="J147">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="4:10">
@@ -4850,7 +4836,7 @@
         <v>163</v>
       </c>
       <c r="J148">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="4:10">
@@ -4861,7 +4847,7 @@
         <v>189</v>
       </c>
       <c r="J149">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="4:10">
@@ -4872,7 +4858,7 @@
         <v>191</v>
       </c>
       <c r="J150">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="4:10">
@@ -4883,7 +4869,7 @@
         <v>195</v>
       </c>
       <c r="J151">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="4:10">
@@ -4894,7 +4880,7 @@
         <v>198</v>
       </c>
       <c r="J152">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="4:10">
@@ -4905,7 +4891,7 @@
         <v>220</v>
       </c>
       <c r="J153">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="4:10">
@@ -4922,7 +4908,7 @@
         <v>224</v>
       </c>
       <c r="J154">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="4:10">
@@ -4933,7 +4919,7 @@
         <v>255</v>
       </c>
       <c r="J155">
-        <v>600</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="4:10">
@@ -4944,7 +4930,7 @@
         <v>259</v>
       </c>
       <c r="J156">
-        <v>500</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="4:10">
@@ -4955,7 +4941,7 @@
         <v>266</v>
       </c>
       <c r="J157">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="4:10">
@@ -4968,8 +4954,11 @@
       <c r="G158">
         <v>1</v>
       </c>
-      <c r="H158" t="s">
-        <v>541</v>
+      <c r="I158" t="s">
+        <v>231</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="4:10">
@@ -4977,10 +4966,10 @@
         <v>196</v>
       </c>
       <c r="I159" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="J159">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="4:10">
@@ -4988,10 +4977,10 @@
         <v>197</v>
       </c>
       <c r="I160" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="J160">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="4:10">
@@ -5004,11 +4993,8 @@
       <c r="G161">
         <v>1</v>
       </c>
-      <c r="I161" t="s">
-        <v>145</v>
-      </c>
-      <c r="J161">
-        <v>12</v>
+      <c r="H161" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="162" spans="4:10">
@@ -5016,10 +5002,10 @@
         <v>199</v>
       </c>
       <c r="I162" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="J162">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="4:10">
@@ -5027,10 +5013,10 @@
         <v>200</v>
       </c>
       <c r="I163" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="J163">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="4:10">
@@ -5038,10 +5024,10 @@
         <v>201</v>
       </c>
       <c r="I164" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="J164">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="4:10">
@@ -5049,10 +5035,10 @@
         <v>202</v>
       </c>
       <c r="I165" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="J165">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="4:10">
@@ -5060,10 +5046,10 @@
         <v>203</v>
       </c>
       <c r="I166" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="J166">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="4:10">
@@ -5071,10 +5057,10 @@
         <v>204</v>
       </c>
       <c r="I167" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J167">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="4:10">
@@ -5082,10 +5068,10 @@
         <v>205</v>
       </c>
       <c r="I168" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="J168">
-        <v>300</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="4:10">
@@ -5093,10 +5079,10 @@
         <v>206</v>
       </c>
       <c r="I169" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="J169">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="4:10">
@@ -5104,10 +5090,10 @@
         <v>207</v>
       </c>
       <c r="I170" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="J170">
-        <v>400</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="4:10">
@@ -5115,10 +5101,10 @@
         <v>208</v>
       </c>
       <c r="I171" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="J171">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="4:10">
@@ -5126,18 +5112,21 @@
         <v>209</v>
       </c>
       <c r="I172" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="J172">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173" spans="4:10">
       <c r="E173" t="s">
         <v>210</v>
       </c>
-      <c r="H173" t="s">
-        <v>542</v>
+      <c r="I173" t="s">
+        <v>255</v>
+      </c>
+      <c r="J173">
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="4:10">
@@ -5145,10 +5134,10 @@
         <v>211</v>
       </c>
       <c r="I174" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="J174">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="4:10">
@@ -5156,10 +5145,10 @@
         <v>212</v>
       </c>
       <c r="I175" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="J175">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="4:10">
@@ -5167,10 +5156,10 @@
         <v>213</v>
       </c>
       <c r="I176" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="J176">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="4:10">
@@ -5178,10 +5167,10 @@
         <v>214</v>
       </c>
       <c r="I177" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="J177">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="4:10">
@@ -5189,21 +5178,18 @@
         <v>215</v>
       </c>
       <c r="I178" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="J178">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="4:10">
       <c r="E179" t="s">
         <v>216</v>
       </c>
-      <c r="I179" t="s">
-        <v>198</v>
-      </c>
-      <c r="J179">
-        <v>30</v>
+      <c r="H179" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="180" spans="4:10">
@@ -5217,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="J180">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="4:10">
@@ -5228,10 +5214,10 @@
         <v>221</v>
       </c>
       <c r="I181" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="J181">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="4:10">
@@ -5239,10 +5225,10 @@
         <v>222</v>
       </c>
       <c r="I182" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="J182">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="4:10">
@@ -5250,10 +5236,10 @@
         <v>223</v>
       </c>
       <c r="I183" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="J183">
-        <v>240</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="4:10">
@@ -5267,10 +5253,10 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="J184">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="4:10">
@@ -5278,10 +5264,10 @@
         <v>225</v>
       </c>
       <c r="I185" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="J185">
-        <v>600</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="4:10">
@@ -5289,10 +5275,10 @@
         <v>226</v>
       </c>
       <c r="I186" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="J186">
-        <v>500</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187" spans="4:10">
@@ -5300,18 +5286,21 @@
         <v>227</v>
       </c>
       <c r="I187" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="J187">
-        <v>400</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="4:10">
       <c r="E188" t="s">
         <v>228</v>
       </c>
-      <c r="H188" t="s">
-        <v>543</v>
+      <c r="I188" t="s">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="4:10">
@@ -5319,10 +5308,10 @@
         <v>229</v>
       </c>
       <c r="I189" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="J189">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="4:10">
@@ -5330,10 +5319,10 @@
         <v>230</v>
       </c>
       <c r="I190" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="J190">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="4:10">
@@ -5347,10 +5336,10 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="J191">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="4:10">
@@ -5358,10 +5347,10 @@
         <v>256</v>
       </c>
       <c r="I192" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="J192">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="4:10">
@@ -5369,10 +5358,10 @@
         <v>257</v>
       </c>
       <c r="I193" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="J193">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="4:10">
@@ -5380,10 +5369,10 @@
         <v>258</v>
       </c>
       <c r="I194" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="J194">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="4:10">
@@ -5397,10 +5386,10 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="J195">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="4:10">
@@ -5408,21 +5397,18 @@
         <v>260</v>
       </c>
       <c r="I196" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J196">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="4:10">
       <c r="E197" t="s">
         <v>261</v>
       </c>
-      <c r="I197" t="s">
-        <v>255</v>
-      </c>
-      <c r="J197">
-        <v>240</v>
+      <c r="H197" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="198" spans="4:10">
@@ -5430,10 +5416,10 @@
         <v>262</v>
       </c>
       <c r="I198" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="J198">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="4:10">
@@ -5441,10 +5427,10 @@
         <v>263</v>
       </c>
       <c r="I199" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="J199">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="4:10">
@@ -5452,10 +5438,10 @@
         <v>264</v>
       </c>
       <c r="I200" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="J200">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="4:10">
@@ -5463,10 +5449,10 @@
         <v>265</v>
       </c>
       <c r="I201" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="J201">
-        <v>280</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="4:10">
@@ -5480,18 +5466,21 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="J202">
-        <v>220</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="4:10">
       <c r="E203" t="s">
         <v>267</v>
       </c>
-      <c r="H203" t="s">
-        <v>614</v>
+      <c r="I203" t="s">
+        <v>198</v>
+      </c>
+      <c r="J203">
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="4:10">
@@ -5499,10 +5488,10 @@
         <v>268</v>
       </c>
       <c r="I204" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="J204">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="4:10">
@@ -5510,10 +5499,10 @@
         <v>269</v>
       </c>
       <c r="I205" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="J205">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="4:10">
@@ -5521,10 +5510,10 @@
         <v>270</v>
       </c>
       <c r="I206" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="J206">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="4:10">
@@ -5532,10 +5521,10 @@
         <v>271</v>
       </c>
       <c r="I207" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="J207">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="4:10">
@@ -5543,10 +5532,10 @@
         <v>272</v>
       </c>
       <c r="I208" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="J208">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="4:10">
@@ -5554,10 +5543,10 @@
         <v>273</v>
       </c>
       <c r="I209" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="J209">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210" spans="4:10">
@@ -5565,10 +5554,10 @@
         <v>274</v>
       </c>
       <c r="I210" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="J210">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211" spans="4:10">
@@ -5576,10 +5565,10 @@
         <v>275</v>
       </c>
       <c r="I211" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="J211">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212" spans="4:10">
@@ -5587,10 +5576,10 @@
         <v>276</v>
       </c>
       <c r="I212" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="J212">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213" spans="4:10">
@@ -5598,10 +5587,10 @@
         <v>277</v>
       </c>
       <c r="I213" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="J213">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214" spans="4:10">
@@ -5609,10 +5598,10 @@
         <v>278</v>
       </c>
       <c r="I214" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="J214">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="4:10">
@@ -5620,10 +5609,10 @@
         <v>279</v>
       </c>
       <c r="I215" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="J215">
-        <v>160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="4:10">
@@ -5631,10 +5620,10 @@
         <v>280</v>
       </c>
       <c r="I216" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="J216">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="4:10">
@@ -5642,26 +5631,41 @@
         <v>281</v>
       </c>
       <c r="I217" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="J217">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="4:10">
       <c r="E218" t="s">
         <v>282</v>
       </c>
+      <c r="H218" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="219" spans="4:10">
       <c r="E219" t="s">
         <v>283</v>
       </c>
+      <c r="I219" t="s">
+        <v>162</v>
+      </c>
+      <c r="J219">
+        <v>12</v>
+      </c>
     </row>
     <row r="220" spans="4:10">
       <c r="E220" t="s">
         <v>284</v>
       </c>
+      <c r="I220" t="s">
+        <v>163</v>
+      </c>
+      <c r="J220">
+        <v>12</v>
+      </c>
     </row>
     <row r="221" spans="4:10">
       <c r="D221" t="s">
@@ -5673,23 +5677,47 @@
       <c r="G221">
         <v>1</v>
       </c>
+      <c r="I221" t="s">
+        <v>189</v>
+      </c>
+      <c r="J221">
+        <v>12</v>
+      </c>
     </row>
     <row r="222" spans="4:10">
       <c r="E222" t="s">
         <v>286</v>
       </c>
+      <c r="I222" t="s">
+        <v>191</v>
+      </c>
+      <c r="J222">
+        <v>12</v>
+      </c>
     </row>
     <row r="223" spans="4:10">
       <c r="E223" t="s">
         <v>287</v>
       </c>
+      <c r="I223" t="s">
+        <v>195</v>
+      </c>
+      <c r="J223">
+        <v>12</v>
+      </c>
     </row>
     <row r="224" spans="4:10">
       <c r="E224" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="225" spans="4:7">
+      <c r="I224" t="s">
+        <v>198</v>
+      </c>
+      <c r="J224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="4:10">
       <c r="D225" t="s">
         <v>289</v>
       </c>
@@ -5699,18 +5727,36 @@
       <c r="G225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="4:7">
+      <c r="I225" t="s">
+        <v>220</v>
+      </c>
+      <c r="J225">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="4:10">
       <c r="E226" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="227" spans="4:7">
+      <c r="I226" t="s">
+        <v>224</v>
+      </c>
+      <c r="J226">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="4:10">
       <c r="E227" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="228" spans="4:7">
+      <c r="I227" t="s">
+        <v>255</v>
+      </c>
+      <c r="J227">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="4:10">
       <c r="D228" t="s">
         <v>292</v>
       </c>
@@ -5720,98 +5766,209 @@
       <c r="G228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="4:7">
+      <c r="I228" t="s">
+        <v>259</v>
+      </c>
+      <c r="J228">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="4:10">
       <c r="E229" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="230" spans="4:7">
+      <c r="I229" t="s">
+        <v>266</v>
+      </c>
+      <c r="J229">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="4:10">
       <c r="E230" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="231" spans="4:7">
+      <c r="I230" t="s">
+        <v>285</v>
+      </c>
+      <c r="J230">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="4:10">
       <c r="E231" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="232" spans="4:7">
+      <c r="I231" t="s">
+        <v>289</v>
+      </c>
+      <c r="J231">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="4:10">
       <c r="E232" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="233" spans="4:7">
+      <c r="I232" t="s">
+        <v>292</v>
+      </c>
+      <c r="J232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="4:10">
       <c r="E233" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="234" spans="4:7">
+      <c r="I233" t="s">
+        <v>311</v>
+      </c>
+      <c r="J233">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234" spans="4:10">
       <c r="E234" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="235" spans="4:7">
+      <c r="I234" t="s">
+        <v>312</v>
+      </c>
+      <c r="J234">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" spans="4:10">
       <c r="E235" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="236" spans="4:7">
+      <c r="I235" t="s">
+        <v>313</v>
+      </c>
+      <c r="J235">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" spans="4:10">
       <c r="E236" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="237" spans="4:7">
+      <c r="I236" t="s">
+        <v>231</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="4:10">
       <c r="E237" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="238" spans="4:7">
+      <c r="I237" t="s">
+        <v>254</v>
+      </c>
+      <c r="J237">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="4:10">
       <c r="E238" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="239" spans="4:7">
+      <c r="I238" t="s">
+        <v>246</v>
+      </c>
+      <c r="J238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="4:10">
       <c r="E239" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="240" spans="4:7">
+      <c r="I239" t="s">
+        <v>231</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="4:10">
       <c r="E240" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="241" spans="4:7">
+      <c r="I240" t="s">
+        <v>231</v>
+      </c>
+      <c r="J240">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="241" spans="4:10">
       <c r="E241" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="242" spans="4:7">
+      <c r="I241" t="s">
+        <v>231</v>
+      </c>
+      <c r="J241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="4:10">
       <c r="E242" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="243" spans="4:7">
+      <c r="H242" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="243" spans="4:10">
       <c r="E243" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="244" spans="4:7">
+      <c r="I243" t="s">
+        <v>162</v>
+      </c>
+      <c r="J243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="4:10">
       <c r="E244" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="245" spans="4:7">
+      <c r="I244" t="s">
+        <v>163</v>
+      </c>
+      <c r="J244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="4:10">
       <c r="E245" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="246" spans="4:7">
+      <c r="I245" t="s">
+        <v>189</v>
+      </c>
+      <c r="J245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="4:10">
       <c r="E246" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="247" spans="4:7">
+      <c r="I246" t="s">
+        <v>191</v>
+      </c>
+      <c r="J246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="4:10">
       <c r="D247" t="s">
         <v>311</v>
       </c>
@@ -5821,23 +5978,47 @@
       <c r="G247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="4:7">
+      <c r="I247" t="s">
+        <v>195</v>
+      </c>
+      <c r="J247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="4:10">
       <c r="E248" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="249" spans="4:7">
+      <c r="I248" t="s">
+        <v>198</v>
+      </c>
+      <c r="J248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="4:10">
       <c r="E249" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="250" spans="4:7">
+      <c r="I249" t="s">
+        <v>220</v>
+      </c>
+      <c r="J249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="4:10">
       <c r="E250" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="251" spans="4:7">
+      <c r="I250" t="s">
+        <v>224</v>
+      </c>
+      <c r="J250">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="4:10">
       <c r="D251" t="s">
         <v>312</v>
       </c>
@@ -5847,38 +6028,80 @@
       <c r="G251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="4:7">
+      <c r="I251" t="s">
+        <v>255</v>
+      </c>
+      <c r="J251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="4:10">
       <c r="E252" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="253" spans="4:7">
+      <c r="I252" t="s">
+        <v>259</v>
+      </c>
+      <c r="J252">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="4:10">
       <c r="E253" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="254" spans="4:7">
+      <c r="I253" t="s">
+        <v>266</v>
+      </c>
+      <c r="J253">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="4:10">
       <c r="E254" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="255" spans="4:7">
+      <c r="I254" t="s">
+        <v>285</v>
+      </c>
+      <c r="J254">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="4:10">
       <c r="E255" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="256" spans="4:7">
+      <c r="I255" t="s">
+        <v>289</v>
+      </c>
+      <c r="J255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="4:10">
       <c r="E256" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="257" spans="4:7">
+      <c r="I256" t="s">
+        <v>292</v>
+      </c>
+      <c r="J256">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="4:10">
       <c r="E257" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="258" spans="4:7">
+      <c r="I257" t="s">
+        <v>311</v>
+      </c>
+      <c r="J257">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="258" spans="4:10">
       <c r="D258" t="s">
         <v>313</v>
       </c>
@@ -5888,38 +6111,80 @@
       <c r="G258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="4:7">
+      <c r="I258" t="s">
+        <v>312</v>
+      </c>
+      <c r="J258">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="259" spans="4:10">
       <c r="E259" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="260" spans="4:7">
+      <c r="I259" t="s">
+        <v>313</v>
+      </c>
+      <c r="J259">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="4:10">
       <c r="E260" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="261" spans="4:7">
+      <c r="I260" t="s">
+        <v>231</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="4:10">
       <c r="E261" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="262" spans="4:7">
+      <c r="I261" t="s">
+        <v>254</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="4:10">
       <c r="E262" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="263" spans="4:7">
+      <c r="I262" t="s">
+        <v>246</v>
+      </c>
+      <c r="J262">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="263" spans="4:10">
       <c r="E263" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="264" spans="4:7">
+      <c r="I263" t="s">
+        <v>231</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="4:10">
       <c r="E264" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="265" spans="4:7">
+      <c r="I264" t="s">
+        <v>231</v>
+      </c>
+      <c r="J264">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="265" spans="4:10">
       <c r="D265" t="s">
         <v>329</v>
       </c>
@@ -5929,23 +6194,47 @@
       <c r="G265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="4:7">
+      <c r="I265" t="s">
+        <v>231</v>
+      </c>
+      <c r="J265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="4:10">
       <c r="E266" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="267" spans="4:7">
+      <c r="I266" t="s">
+        <v>254</v>
+      </c>
+      <c r="J266">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="267" spans="4:10">
       <c r="E267" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="268" spans="4:7">
+      <c r="I267" t="s">
+        <v>246</v>
+      </c>
+      <c r="J267">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="4:10">
       <c r="E268" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="269" spans="4:7">
+      <c r="I268" t="s">
+        <v>252</v>
+      </c>
+      <c r="J268">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="4:10">
       <c r="D269" t="s">
         <v>330</v>
       </c>
@@ -5955,18 +6244,30 @@
       <c r="G269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="4:7">
+      <c r="I269" t="s">
+        <v>252</v>
+      </c>
+      <c r="J269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="4:10">
       <c r="E270" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="271" spans="4:7">
+      <c r="I270" t="s">
+        <v>253</v>
+      </c>
+      <c r="J270">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="4:10">
       <c r="E271" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="272" spans="4:7">
+    <row r="272" spans="4:10">
       <c r="D272" t="s">
         <v>331</v>
       </c>
